--- a/nmadb/479914.xlsx
+++ b/nmadb/479914.xlsx
@@ -1,6 +1,310 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taniguchi et al. 2010 </t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richeldi et al. 2011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">azathioprine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghu et al. 1991 </t>
+  </si>
+  <si>
+    <t>NAC triple</t>
+  </si>
+  <si>
+    <r>
+      <t>Raghu et al. 2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+  </si>
+  <si>
+    <t>inhaled NAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zisman et al. 2010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pirfenidone </t>
+  </si>
+  <si>
+    <t>Homma et al. 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBF 1120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demedts et al. 2005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sildenafil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity 006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity 004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azuma et al. 2005 </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  </cellXfs>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +412,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +446,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +581,459 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>104</v>
+      </c>
+      <c r="G2" s="4">
+        <v>103</v>
+      </c>
+      <c r="H2" s="12">
+        <v>-0.35</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>85</v>
+      </c>
+      <c r="G3" s="6">
+        <v>85</v>
+      </c>
+      <c r="H3" s="12">
+        <v>-0.52</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-0.23</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>77</v>
+      </c>
+      <c r="G5" s="6">
+        <v>78</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>89</v>
+      </c>
+      <c r="G6" s="6">
+        <v>91</v>
+      </c>
+      <c r="H6" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6">
+        <v>38</v>
+      </c>
+      <c r="H7" s="12">
+        <v>-0.23</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="2">
+        <v>6</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A8" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6">
+        <v>68</v>
+      </c>
+      <c r="H8" s="12">
+        <v>-0.34</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20">
+        <v>7</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>171</v>
+      </c>
+      <c r="G9" s="6">
+        <v>173</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>174</v>
+      </c>
+      <c r="G10" s="6">
+        <v>174</v>
+      </c>
+      <c r="H10" s="12">
+        <v>-0.25</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>72</v>
+      </c>
+      <c r="G11" s="6">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12">
+        <v>-0.47</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmadb/479914.xlsx
+++ b/nmadb/479914.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>year</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>n2</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>Benefit</t>
@@ -116,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">Azuma et al. 2005 </t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effect=smd</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -622,20 +625,20 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="5"/>
     </row>
@@ -644,7 +647,7 @@
         <v>2010</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -670,13 +673,13 @@
       <c r="J2" s="12"/>
       <c r="K2" s="1"/>
       <c r="L2" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M2" s="15">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -684,7 +687,7 @@
         <v>2011</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -714,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -722,7 +725,7 @@
         <v>1991</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -760,7 +763,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -790,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -798,7 +801,7 @@
         <v>2010</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -828,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -836,7 +839,7 @@
         <v>2012</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -866,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
@@ -874,7 +877,7 @@
         <v>2005</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -904,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -912,7 +915,7 @@
         <v>2011</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -946,7 +949,7 @@
         <v>2011</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -970,7 +973,9 @@
         <v>0.11</v>
       </c>
       <c r="J10" s="12"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="13"/>
@@ -980,7 +985,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
